--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-02.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="238">
   <si>
     <t>League</t>
   </si>
@@ -728,21 +728,6 @@
   </si>
   <si>
     <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>33142054</t>
-  </si>
-  <si>
-    <t>1.227003031</t>
-  </si>
-  <si>
-    <t>1.227003034</t>
-  </si>
-  <si>
-    <t>1.227003078</t>
-  </si>
-  <si>
-    <t>1.227003079</t>
   </si>
 </sst>
 </file>
@@ -3881,34 +3866,34 @@
         <v>189</v>
       </c>
       <c r="F15">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G15">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I15">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L15">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="M15">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="O15">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="P15">
         <v>1.89</v>
@@ -3917,121 +3902,121 @@
         <v>2.04</v>
       </c>
       <c r="R15">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S15">
         <v>2.14</v>
       </c>
       <c r="T15">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="U15">
         <v>14</v>
       </c>
       <c r="V15">
-        <v>2.46</v>
+        <v>3.95</v>
       </c>
       <c r="W15">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X15">
-        <v>2.68</v>
+        <v>4.6</v>
       </c>
       <c r="Y15">
         <v>32</v>
       </c>
       <c r="Z15">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA15">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB15">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AC15">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AD15">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AE15">
         <v>14</v>
       </c>
       <c r="AF15">
-        <v>2.52</v>
+        <v>4.4</v>
       </c>
       <c r="AG15">
         <v>18.5</v>
       </c>
       <c r="AH15">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="AI15">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ15">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="AK15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15">
-        <v>2.38</v>
+        <v>3.8</v>
       </c>
       <c r="AM15">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AN15">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="AO15">
         <v>25</v>
       </c>
       <c r="AP15">
-        <v>2.9</v>
+        <v>15</v>
       </c>
       <c r="AQ15">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AR15">
-        <v>2.66</v>
+        <v>4.6</v>
       </c>
       <c r="AS15">
+        <v>34</v>
+      </c>
+      <c r="AT15">
+        <v>4.9</v>
+      </c>
+      <c r="AU15">
         <v>32</v>
       </c>
-      <c r="AT15">
-        <v>2.66</v>
-      </c>
-      <c r="AU15">
-        <v>30</v>
-      </c>
       <c r="AV15">
-        <v>2.9</v>
+        <v>5.4</v>
       </c>
       <c r="AW15">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX15">
-        <v>2.94</v>
+        <v>19.5</v>
       </c>
       <c r="AY15">
         <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="BA15">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="BB15">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="BC15">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="BD15">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -4078,16 +4063,16 @@
         <v>190</v>
       </c>
       <c r="F16">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="G16">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H16">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="I16">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="J16">
         <v>3.65</v>
@@ -4099,55 +4084,55 @@
         <v>2.2</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N16">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="O16">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="P16">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q16">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R16">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="S16">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>17.5</v>
+      </c>
+      <c r="V16">
+        <v>10.5</v>
+      </c>
+      <c r="W16">
+        <v>12.5</v>
+      </c>
+      <c r="X16">
+        <v>14</v>
+      </c>
+      <c r="Y16">
+        <v>20</v>
+      </c>
+      <c r="Z16">
+        <v>24</v>
+      </c>
+      <c r="AA16">
+        <v>32</v>
+      </c>
+      <c r="AB16">
         <v>13</v>
       </c>
-      <c r="U16">
-        <v>21</v>
-      </c>
-      <c r="V16">
-        <v>11.5</v>
-      </c>
-      <c r="W16">
-        <v>16</v>
-      </c>
-      <c r="X16">
-        <v>16.5</v>
-      </c>
-      <c r="Y16">
-        <v>23</v>
-      </c>
-      <c r="Z16">
-        <v>5</v>
-      </c>
-      <c r="AA16">
-        <v>1000</v>
-      </c>
-      <c r="AB16">
-        <v>12</v>
-      </c>
       <c r="AC16">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AD16">
         <v>7.8</v>
@@ -4156,82 +4141,82 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AF16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG16">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH16">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI16">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ16">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AK16">
         <v>24</v>
       </c>
       <c r="AL16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM16">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AN16">
-        <v>4.3</v>
+        <v>14.5</v>
       </c>
       <c r="AO16">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP16">
-        <v>5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ16">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AR16">
-        <v>4.6</v>
+        <v>40</v>
       </c>
       <c r="AS16">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AT16">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AU16">
         <v>34</v>
       </c>
       <c r="AV16">
-        <v>4.5</v>
+        <v>30</v>
       </c>
       <c r="AW16">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX16">
         <v>32</v>
       </c>
       <c r="AY16">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AZ16">
-        <v>3.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BA16">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB16">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BC16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="BD16">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="BE16">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="BF16">
         <v>33134125</v>
@@ -4275,157 +4260,157 @@
         <v>191</v>
       </c>
       <c r="F17">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G17">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="H17">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="I17">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J17">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K17">
         <v>4.8</v>
       </c>
       <c r="L17">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="M17">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="N17">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O17">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="P17">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q17">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="R17">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S17">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="T17">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="U17">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="V17">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="W17">
         <v>980</v>
       </c>
       <c r="X17">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Y17">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z17">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="AA17">
         <v>1000</v>
       </c>
       <c r="AB17">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="AC17">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD17">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AE17">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AF17">
-        <v>4.2</v>
+        <v>34</v>
       </c>
       <c r="AG17">
         <v>980</v>
       </c>
       <c r="AH17">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="AI17">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ17">
         <v>6.4</v>
       </c>
       <c r="AK17">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AL17">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM17">
         <v>11.5</v>
       </c>
       <c r="AN17">
-        <v>5.2</v>
+        <v>30</v>
       </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="AQ17">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AR17">
-        <v>3.95</v>
+        <v>10</v>
       </c>
       <c r="AS17">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AT17">
-        <v>3.8</v>
+        <v>16.5</v>
       </c>
       <c r="AU17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV17">
-        <v>3.8</v>
+        <v>27</v>
       </c>
       <c r="AW17">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AX17">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AY17">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AZ17">
-        <v>2.26</v>
+        <v>8</v>
       </c>
       <c r="BA17">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="BB17">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="BC17">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="BD17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4472,25 +4457,25 @@
         <v>192</v>
       </c>
       <c r="F18">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="G18">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H18">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I18">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J18">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K18">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L18">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="M18">
         <v>2.16</v>
@@ -4499,133 +4484,133 @@
         <v>1.86</v>
       </c>
       <c r="O18">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P18">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q18">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R18">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="S18">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="T18">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>11.5</v>
+      </c>
+      <c r="W18">
+        <v>13</v>
+      </c>
+      <c r="X18">
         <v>16.5</v>
       </c>
-      <c r="V18">
-        <v>11</v>
-      </c>
-      <c r="W18">
-        <v>13.5</v>
-      </c>
-      <c r="X18">
-        <v>15</v>
-      </c>
       <c r="Y18">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z18">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB18">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC18">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD18">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE18">
         <v>8.4</v>
       </c>
       <c r="AF18">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG18">
+        <v>12</v>
+      </c>
+      <c r="AH18">
+        <v>23</v>
+      </c>
+      <c r="AI18">
+        <v>26</v>
+      </c>
+      <c r="AJ18">
+        <v>18.5</v>
+      </c>
+      <c r="AK18">
+        <v>21</v>
+      </c>
+      <c r="AL18">
+        <v>11.5</v>
+      </c>
+      <c r="AM18">
         <v>12.5</v>
-      </c>
-      <c r="AH18">
-        <v>21</v>
-      </c>
-      <c r="AI18">
-        <v>29</v>
-      </c>
-      <c r="AJ18">
-        <v>17.5</v>
-      </c>
-      <c r="AK18">
-        <v>22</v>
-      </c>
-      <c r="AL18">
-        <v>11</v>
-      </c>
-      <c r="AM18">
-        <v>14</v>
       </c>
       <c r="AN18">
         <v>14.5</v>
       </c>
       <c r="AO18">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AP18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ18">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AR18">
-        <v>8.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AS18">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AT18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AV18">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AW18">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX18">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AY18">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AZ18">
-        <v>6.8</v>
+        <v>18.5</v>
       </c>
       <c r="BA18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18">
-        <v>6.4</v>
+        <v>17</v>
       </c>
       <c r="BC18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD18">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BE18">
-        <v>680</v>
+        <v>850</v>
       </c>
       <c r="BF18">
         <v>33119657</v>
@@ -4672,7 +4657,7 @@
         <v>1.95</v>
       </c>
       <c r="G19">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H19">
         <v>4.4</v>
@@ -4684,142 +4669,142 @@
         <v>3.6</v>
       </c>
       <c r="K19">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="M19">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="N19">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="P19">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q19">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T19">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U19">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V19">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W19">
         <v>15.5</v>
       </c>
       <c r="X19">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y19">
         <v>34</v>
       </c>
       <c r="Z19">
-        <v>8.6</v>
+        <v>65</v>
       </c>
       <c r="AA19">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB19">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC19">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AE19">
         <v>8.4</v>
       </c>
       <c r="AF19">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH19">
-        <v>8.199999999999999</v>
+        <v>50</v>
       </c>
       <c r="AI19">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ19">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK19">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL19">
         <v>9.4</v>
       </c>
       <c r="AM19">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AN19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AP19">
-        <v>8.4</v>
+        <v>55</v>
       </c>
       <c r="AQ19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AR19">
         <v>19.5</v>
       </c>
       <c r="AS19">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT19">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AU19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AV19">
-        <v>8.6</v>
+        <v>34</v>
       </c>
       <c r="AW19">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AX19">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AY19">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AZ19">
-        <v>6</v>
+        <v>12.5</v>
       </c>
       <c r="BA19">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="BB19">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="BC19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BD19">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE19">
         <v>1000</v>
@@ -4869,52 +4854,52 @@
         <v>2.4</v>
       </c>
       <c r="G20">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H20">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I20">
         <v>3.35</v>
       </c>
       <c r="J20">
+        <v>3.5</v>
+      </c>
+      <c r="K20">
         <v>3.55</v>
       </c>
-      <c r="K20">
-        <v>3.65</v>
-      </c>
       <c r="L20">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="N20">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="P20">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q20">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R20">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="S20">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U20">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="V20">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W20">
         <v>13.5</v>
@@ -4923,46 +4908,46 @@
         <v>20</v>
       </c>
       <c r="Y20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z20">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA20">
         <v>55</v>
       </c>
       <c r="AB20">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC20">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD20">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE20">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF20">
         <v>12.5</v>
       </c>
       <c r="AG20">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH20">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI20">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ20">
         <v>14</v>
       </c>
       <c r="AK20">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL20">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM20">
         <v>11.5</v>
@@ -4971,55 +4956,55 @@
         <v>15.5</v>
       </c>
       <c r="AO20">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP20">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AQ20">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR20">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS20">
         <v>32</v>
       </c>
       <c r="AT20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU20">
         <v>25</v>
       </c>
       <c r="AV20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AW20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AX20">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="AY20">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AZ20">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="BA20">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="BB20">
         <v>26</v>
       </c>
       <c r="BC20">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="BD20">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="BE20">
-        <v>810</v>
+        <v>960</v>
       </c>
       <c r="BF20">
         <v>33125411</v>
@@ -5066,154 +5051,154 @@
         <v>3.1</v>
       </c>
       <c r="G21">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H21">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="I21">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J21">
+        <v>3.05</v>
+      </c>
+      <c r="K21">
         <v>3.1</v>
       </c>
-      <c r="K21">
-        <v>3.15</v>
-      </c>
       <c r="L21">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="M21">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="N21">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="O21">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q21">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
         <v>1.83</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
+        <v>7.6</v>
+      </c>
+      <c r="U21">
+        <v>8.4</v>
+      </c>
+      <c r="V21">
         <v>7.8</v>
       </c>
-      <c r="U21">
-        <v>9.4</v>
-      </c>
-      <c r="V21">
-        <v>7.6</v>
-      </c>
       <c r="W21">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="X21">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z21">
-        <v>6.6</v>
+        <v>38</v>
       </c>
       <c r="AA21">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB21">
         <v>8.4</v>
       </c>
       <c r="AC21">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD21">
         <v>6.4</v>
       </c>
       <c r="AE21">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AF21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG21">
+        <v>13.5</v>
+      </c>
+      <c r="AH21">
+        <v>34</v>
+      </c>
+      <c r="AI21">
+        <v>40</v>
+      </c>
+      <c r="AJ21">
+        <v>17</v>
+      </c>
+      <c r="AK21">
+        <v>19</v>
+      </c>
+      <c r="AL21">
+        <v>13</v>
+      </c>
+      <c r="AM21">
         <v>14.5</v>
       </c>
-      <c r="AH21">
-        <v>7</v>
-      </c>
-      <c r="AI21">
-        <v>42</v>
-      </c>
-      <c r="AJ21">
-        <v>16</v>
-      </c>
-      <c r="AK21">
-        <v>22</v>
-      </c>
-      <c r="AL21">
-        <v>12</v>
-      </c>
-      <c r="AM21">
-        <v>16</v>
-      </c>
       <c r="AN21">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AO21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21">
-        <v>6.8</v>
+        <v>55</v>
       </c>
       <c r="AQ21">
         <v>70</v>
       </c>
       <c r="AR21">
-        <v>6.8</v>
+        <v>40</v>
       </c>
       <c r="AS21">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AT21">
-        <v>6.6</v>
+        <v>40</v>
       </c>
       <c r="AU21">
+        <v>46</v>
+      </c>
+      <c r="AV21">
         <v>50</v>
-      </c>
-      <c r="AV21">
-        <v>6.8</v>
       </c>
       <c r="AW21">
         <v>75</v>
       </c>
       <c r="AX21">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="AY21">
         <v>180</v>
       </c>
       <c r="AZ21">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="BA21">
         <v>55</v>
       </c>
       <c r="BB21">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="BC21">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BD21">
-        <v>8.4</v>
+        <v>20</v>
       </c>
       <c r="BE21">
         <v>1000</v>
@@ -5260,160 +5245,160 @@
         <v>196</v>
       </c>
       <c r="F22">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G22">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I22">
         <v>4.3</v>
       </c>
       <c r="J22">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="M22">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N22">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="O22">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="P22">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q22">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R22">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="S22">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="T22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U22">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="V22">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="W22">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X22">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y22">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Z22">
-        <v>5.6</v>
+        <v>17</v>
       </c>
       <c r="AA22">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB22">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC22">
+        <v>10.5</v>
+      </c>
+      <c r="AD22">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>8.6</v>
+      </c>
+      <c r="AF22">
+        <v>15</v>
+      </c>
+      <c r="AG22">
+        <v>16.5</v>
+      </c>
+      <c r="AH22">
+        <v>40</v>
+      </c>
+      <c r="AI22">
+        <v>48</v>
+      </c>
+      <c r="AJ22">
+        <v>11.5</v>
+      </c>
+      <c r="AK22">
+        <v>12.5</v>
+      </c>
+      <c r="AL22">
+        <v>9.6</v>
+      </c>
+      <c r="AM22">
+        <v>10.5</v>
+      </c>
+      <c r="AN22">
+        <v>16</v>
+      </c>
+      <c r="AO22">
+        <v>17.5</v>
+      </c>
+      <c r="AP22">
+        <v>30</v>
+      </c>
+      <c r="AQ22">
+        <v>55</v>
+      </c>
+      <c r="AR22">
+        <v>20</v>
+      </c>
+      <c r="AS22">
+        <v>23</v>
+      </c>
+      <c r="AT22">
+        <v>17.5</v>
+      </c>
+      <c r="AU22">
+        <v>19.5</v>
+      </c>
+      <c r="AV22">
+        <v>29</v>
+      </c>
+      <c r="AW22">
+        <v>32</v>
+      </c>
+      <c r="AX22">
+        <v>17.5</v>
+      </c>
+      <c r="AY22">
+        <v>90</v>
+      </c>
+      <c r="AZ22">
         <v>11</v>
       </c>
-      <c r="AD22">
-        <v>8.4</v>
-      </c>
-      <c r="AE22">
-        <v>9.6</v>
-      </c>
-      <c r="AF22">
+      <c r="BA22">
         <v>12</v>
       </c>
-      <c r="AG22">
-        <v>20</v>
-      </c>
-      <c r="AH22">
-        <v>5.7</v>
-      </c>
-      <c r="AI22">
-        <v>55</v>
-      </c>
-      <c r="AJ22">
-        <v>10</v>
-      </c>
-      <c r="AK22">
-        <v>16</v>
-      </c>
-      <c r="AL22">
-        <v>9.4</v>
-      </c>
-      <c r="AM22">
-        <v>12.5</v>
-      </c>
-      <c r="AN22">
-        <v>15.5</v>
-      </c>
-      <c r="AO22">
-        <v>21</v>
-      </c>
-      <c r="AP22">
-        <v>5.7</v>
-      </c>
-      <c r="AQ22">
-        <v>60</v>
-      </c>
-      <c r="AR22">
-        <v>16.5</v>
-      </c>
-      <c r="AS22">
-        <v>27</v>
-      </c>
-      <c r="AT22">
-        <v>13.5</v>
-      </c>
-      <c r="AU22">
-        <v>22</v>
-      </c>
-      <c r="AV22">
-        <v>21</v>
-      </c>
-      <c r="AW22">
-        <v>36</v>
-      </c>
-      <c r="AX22">
-        <v>5.6</v>
-      </c>
-      <c r="AY22">
-        <v>95</v>
-      </c>
-      <c r="AZ22">
-        <v>3.9</v>
-      </c>
-      <c r="BA22">
-        <v>11</v>
-      </c>
       <c r="BB22">
-        <v>5.2</v>
+        <v>32</v>
       </c>
       <c r="BC22">
         <v>42</v>
       </c>
       <c r="BD22">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="BE22">
-        <v>670</v>
+        <v>850</v>
       </c>
       <c r="BF22">
         <v>33120014</v>
@@ -5457,64 +5442,64 @@
         <v>197</v>
       </c>
       <c r="F23">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="G23">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H23">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J23">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K23">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L23">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="M23">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="N23">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="O23">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="P23">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q23">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R23">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T23">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="U23">
         <v>980</v>
       </c>
       <c r="V23">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="W23">
         <v>980</v>
       </c>
       <c r="X23">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y23">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z23">
         <v>4.2</v>
@@ -5523,13 +5508,13 @@
         <v>1000</v>
       </c>
       <c r="AB23">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AC23">
         <v>980</v>
       </c>
       <c r="AD23">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="AE23">
         <v>980</v>
@@ -5541,61 +5526,61 @@
         <v>980</v>
       </c>
       <c r="AH23">
+        <v>7.2</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
         <v>4.2</v>
       </c>
-      <c r="AI23">
-        <v>1000</v>
-      </c>
-      <c r="AJ23">
-        <v>4</v>
-      </c>
       <c r="AK23">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AL23">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="AM23">
         <v>980</v>
       </c>
       <c r="AN23">
-        <v>2.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO23">
         <v>980</v>
       </c>
       <c r="AP23">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="AQ23">
         <v>1000</v>
       </c>
       <c r="AR23">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="AS23">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AT23">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="AU23">
         <v>21</v>
       </c>
       <c r="AV23">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="AW23">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AX23">
-        <v>2.42</v>
+        <v>7.4</v>
       </c>
       <c r="AY23">
         <v>1000</v>
       </c>
       <c r="AZ23">
-        <v>2.34</v>
+        <v>4.7</v>
       </c>
       <c r="BA23">
         <v>55</v>
@@ -5607,7 +5592,7 @@
         <v>1000</v>
       </c>
       <c r="BD23">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="BE23">
         <v>1000</v>
@@ -5654,61 +5639,61 @@
         <v>198</v>
       </c>
       <c r="F24">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G24">
         <v>1.34</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I24">
         <v>17.5</v>
       </c>
       <c r="J24">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K24">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L24">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="M24">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="N24">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="P24">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="R24">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T24">
         <v>14</v>
       </c>
       <c r="U24">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="W24">
         <v>980</v>
       </c>
       <c r="X24">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y24">
         <v>150</v>
@@ -5720,49 +5705,49 @@
         <v>1000</v>
       </c>
       <c r="AB24">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC24">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD24">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE24">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF24">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG24">
         <v>980</v>
       </c>
       <c r="AH24">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI24">
         <v>1000</v>
       </c>
       <c r="AJ24">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AK24">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AL24">
         <v>9.199999999999999</v>
       </c>
       <c r="AM24">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN24">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="AO24">
         <v>980</v>
       </c>
       <c r="AP24">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AQ24">
         <v>1000</v>
@@ -5771,7 +5756,7 @@
         <v>8.4</v>
       </c>
       <c r="AS24">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AT24">
         <v>13</v>
@@ -5780,22 +5765,22 @@
         <v>18</v>
       </c>
       <c r="AV24">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AW24">
         <v>60</v>
       </c>
       <c r="AX24">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY24">
         <v>1000</v>
       </c>
       <c r="AZ24">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="BA24">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BB24">
         <v>15</v>
@@ -5804,7 +5789,7 @@
         <v>1000</v>
       </c>
       <c r="BD24">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5851,106 +5836,106 @@
         <v>199</v>
       </c>
       <c r="F25">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G25">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="H25">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="I25">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="J25">
         <v>3.05</v>
       </c>
       <c r="K25">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L25">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M25">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P25">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q25">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R25">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S25">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="U25">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="V25">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W25">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X25">
-        <v>4.7</v>
+        <v>18</v>
       </c>
       <c r="Y25">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Z25">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="AA25">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AB25">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC25">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25">
         <v>6.4</v>
       </c>
       <c r="AE25">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF25">
+        <v>12</v>
+      </c>
+      <c r="AG25">
+        <v>17.5</v>
+      </c>
+      <c r="AH25">
+        <v>6.4</v>
+      </c>
+      <c r="AI25">
+        <v>70</v>
+      </c>
+      <c r="AJ25">
+        <v>11.5</v>
+      </c>
+      <c r="AK25">
+        <v>17</v>
+      </c>
+      <c r="AL25">
+        <v>10</v>
+      </c>
+      <c r="AM25">
         <v>14</v>
-      </c>
-      <c r="AG25">
-        <v>19.5</v>
-      </c>
-      <c r="AH25">
-        <v>5.1</v>
-      </c>
-      <c r="AI25">
-        <v>80</v>
-      </c>
-      <c r="AJ25">
-        <v>10</v>
-      </c>
-      <c r="AK25">
-        <v>15.5</v>
-      </c>
-      <c r="AL25">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM25">
-        <v>14.5</v>
       </c>
       <c r="AN25">
         <v>19</v>
@@ -5959,49 +5944,49 @@
         <v>29</v>
       </c>
       <c r="AP25">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AQ25">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AS25">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AT25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AV25">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="AW25">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AX25">
-        <v>5.3</v>
+        <v>28</v>
       </c>
       <c r="AY25">
         <v>230</v>
       </c>
       <c r="AZ25">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="BA25">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="BB25">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="BC25">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="BD25">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="BE25">
         <v>1000</v>
@@ -6048,13 +6033,13 @@
         <v>200</v>
       </c>
       <c r="F26">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="G26">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H26">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I26">
         <v>4.3</v>
@@ -6063,28 +6048,28 @@
         <v>2.82</v>
       </c>
       <c r="K26">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="L26">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M26">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="N26">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O26">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
         <v>2.28</v>
       </c>
       <c r="Q26">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="R26">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S26">
         <v>1.78</v>
@@ -6093,25 +6078,25 @@
         <v>6</v>
       </c>
       <c r="U26">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="V26">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W26">
         <v>11</v>
       </c>
       <c r="X26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z26">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA26">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB26">
         <v>6</v>
@@ -6126,19 +6111,19 @@
         <v>7.4</v>
       </c>
       <c r="AF26">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG26">
         <v>21</v>
       </c>
       <c r="AH26">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AI26">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ26">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK26">
         <v>14</v>
@@ -6147,7 +6132,7 @@
         <v>10.5</v>
       </c>
       <c r="AM26">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AN26">
         <v>22</v>
@@ -6156,7 +6141,7 @@
         <v>30</v>
       </c>
       <c r="AP26">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AQ26">
         <v>130</v>
@@ -6168,28 +6153,28 @@
         <v>38</v>
       </c>
       <c r="AT26">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AU26">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AV26">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AW26">
         <v>85</v>
       </c>
       <c r="AX26">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AY26">
         <v>290</v>
       </c>
       <c r="AZ26">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="BA26">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BB26">
         <v>8</v>
@@ -6198,7 +6183,7 @@
         <v>130</v>
       </c>
       <c r="BD26">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6245,91 +6230,91 @@
         <v>201</v>
       </c>
       <c r="F27">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="G27">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>22</v>
       </c>
       <c r="J27">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K27">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
         <v>3.4</v>
       </c>
       <c r="N27">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="O27">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="P27">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q27">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R27">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="S27">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T27">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U27">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="V27">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="W27">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="X27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y27">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="Z27">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AA27">
-        <v>1000</v>
+        <v>840</v>
       </c>
       <c r="AB27">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC27">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE27">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF27">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG27">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AH27">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI27">
         <v>320</v>
@@ -6338,64 +6323,64 @@
         <v>8</v>
       </c>
       <c r="AK27">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL27">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AM27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN27">
         <v>34</v>
       </c>
       <c r="AO27">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AP27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ27">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR27">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AS27">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AT27">
         <v>12</v>
       </c>
       <c r="AU27">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AV27">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AW27">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AX27">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AY27">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="AZ27">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="BA27">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BB27">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="BC27">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="BD27">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6442,91 +6427,91 @@
         <v>202</v>
       </c>
       <c r="F28">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="G28">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="H28">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I28">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J28">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K28">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="L28">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="M28">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="N28">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="O28">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="P28">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="Q28">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="R28">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="S28">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T28">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="U28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W28">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y28">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z28">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="AA28">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AB28">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC28">
+        <v>9</v>
+      </c>
+      <c r="AD28">
+        <v>7.2</v>
+      </c>
+      <c r="AE28">
         <v>8.4</v>
-      </c>
-      <c r="AD28">
-        <v>6.8</v>
-      </c>
-      <c r="AE28">
-        <v>7.6</v>
       </c>
       <c r="AF28">
         <v>15.5</v>
       </c>
       <c r="AG28">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH28">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI28">
         <v>60</v>
@@ -6538,61 +6523,61 @@
         <v>12</v>
       </c>
       <c r="AL28">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AM28">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AN28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO28">
         <v>22</v>
       </c>
       <c r="AP28">
+        <v>55</v>
+      </c>
+      <c r="AQ28">
+        <v>70</v>
+      </c>
+      <c r="AR28">
+        <v>20</v>
+      </c>
+      <c r="AS28">
+        <v>24</v>
+      </c>
+      <c r="AT28">
+        <v>19</v>
+      </c>
+      <c r="AU28">
+        <v>26</v>
+      </c>
+      <c r="AV28">
+        <v>34</v>
+      </c>
+      <c r="AW28">
         <v>38</v>
       </c>
-      <c r="AQ28">
-        <v>80</v>
-      </c>
-      <c r="AR28">
-        <v>22</v>
-      </c>
-      <c r="AS28">
-        <v>26</v>
-      </c>
-      <c r="AT28">
-        <v>22</v>
-      </c>
-      <c r="AU28">
-        <v>25</v>
-      </c>
-      <c r="AV28">
-        <v>40</v>
-      </c>
-      <c r="AW28">
-        <v>48</v>
-      </c>
       <c r="AX28">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AY28">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AZ28">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA28">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BB28">
-        <v>11.5</v>
+        <v>50</v>
       </c>
       <c r="BC28">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD28">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6639,16 +6624,16 @@
         <v>203</v>
       </c>
       <c r="F29">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G29">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H29">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I29">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J29">
         <v>3.4</v>
@@ -6657,10 +6642,10 @@
         <v>3.5</v>
       </c>
       <c r="L29">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="M29">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="N29">
         <v>2.08</v>
@@ -6669,127 +6654,127 @@
         <v>2.14</v>
       </c>
       <c r="P29">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="Q29">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R29">
         <v>2.1</v>
       </c>
       <c r="S29">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="T29">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U29">
         <v>12.5</v>
       </c>
       <c r="V29">
+        <v>12</v>
+      </c>
+      <c r="W29">
+        <v>13</v>
+      </c>
+      <c r="X29">
+        <v>21</v>
+      </c>
+      <c r="Y29">
+        <v>24</v>
+      </c>
+      <c r="Z29">
+        <v>48</v>
+      </c>
+      <c r="AA29">
+        <v>65</v>
+      </c>
+      <c r="AB29">
+        <v>9</v>
+      </c>
+      <c r="AC29">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD29">
+        <v>7.2</v>
+      </c>
+      <c r="AE29">
+        <v>7.4</v>
+      </c>
+      <c r="AF29">
+        <v>13.5</v>
+      </c>
+      <c r="AG29">
+        <v>15</v>
+      </c>
+      <c r="AH29">
+        <v>36</v>
+      </c>
+      <c r="AI29">
+        <v>42</v>
+      </c>
+      <c r="AJ29">
+        <v>12.5</v>
+      </c>
+      <c r="AK29">
+        <v>14</v>
+      </c>
+      <c r="AL29">
+        <v>10</v>
+      </c>
+      <c r="AM29">
         <v>11</v>
       </c>
-      <c r="W29">
-        <v>14</v>
-      </c>
-      <c r="X29">
-        <v>19</v>
-      </c>
-      <c r="Y29">
-        <v>29</v>
-      </c>
-      <c r="Z29">
-        <v>6.8</v>
-      </c>
-      <c r="AA29">
-        <v>75</v>
-      </c>
-      <c r="AB29">
-        <v>8.4</v>
-      </c>
-      <c r="AC29">
-        <v>10</v>
-      </c>
-      <c r="AD29">
-        <v>6.8</v>
-      </c>
-      <c r="AE29">
-        <v>7.8</v>
-      </c>
-      <c r="AF29">
-        <v>12</v>
-      </c>
-      <c r="AG29">
-        <v>16.5</v>
-      </c>
-      <c r="AH29">
-        <v>28</v>
-      </c>
-      <c r="AI29">
-        <v>50</v>
-      </c>
-      <c r="AJ29">
-        <v>13</v>
-      </c>
-      <c r="AK29">
-        <v>16</v>
-      </c>
-      <c r="AL29">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AM29">
-        <v>14</v>
-      </c>
       <c r="AN29">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO29">
+        <v>18.5</v>
+      </c>
+      <c r="AP29">
+        <v>42</v>
+      </c>
+      <c r="AQ29">
+        <v>55</v>
+      </c>
+      <c r="AR29">
+        <v>27</v>
+      </c>
+      <c r="AS29">
+        <v>30</v>
+      </c>
+      <c r="AT29">
+        <v>23</v>
+      </c>
+      <c r="AU29">
+        <v>25</v>
+      </c>
+      <c r="AV29">
+        <v>36</v>
+      </c>
+      <c r="AW29">
+        <v>40</v>
+      </c>
+      <c r="AX29">
+        <v>70</v>
+      </c>
+      <c r="AY29">
+        <v>110</v>
+      </c>
+      <c r="AZ29">
+        <v>17.5</v>
+      </c>
+      <c r="BA29">
         <v>20</v>
       </c>
-      <c r="AP29">
-        <v>6.4</v>
-      </c>
-      <c r="AQ29">
-        <v>70</v>
-      </c>
-      <c r="AR29">
-        <v>6.4</v>
-      </c>
-      <c r="AS29">
-        <v>38</v>
-      </c>
-      <c r="AT29">
-        <v>21</v>
-      </c>
-      <c r="AU29">
-        <v>32</v>
-      </c>
-      <c r="AV29">
-        <v>6.8</v>
-      </c>
-      <c r="AW29">
-        <v>55</v>
-      </c>
-      <c r="AX29">
-        <v>28</v>
-      </c>
-      <c r="AY29">
-        <v>140</v>
-      </c>
-      <c r="AZ29">
-        <v>5.5</v>
-      </c>
-      <c r="BA29">
-        <v>25</v>
-      </c>
       <c r="BB29">
-        <v>6.4</v>
+        <v>24</v>
       </c>
       <c r="BC29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD29">
-        <v>7.8</v>
+        <v>23</v>
       </c>
       <c r="BE29">
         <v>1000</v>
@@ -6836,157 +6821,157 @@
         <v>204</v>
       </c>
       <c r="F30">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G30">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H30">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I30">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J30">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K30">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L30">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M30">
         <v>1.49</v>
       </c>
       <c r="N30">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O30">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q30">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="R30">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T30">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="U30">
-        <v>980</v>
+        <v>8</v>
       </c>
       <c r="V30">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="W30">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="X30">
-        <v>5.9</v>
+        <v>14.5</v>
       </c>
       <c r="Y30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA30">
         <v>70</v>
       </c>
       <c r="AB30">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC30">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="AD30">
         <v>6.2</v>
       </c>
       <c r="AE30">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AF30">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG30">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI30">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ30">
-        <v>5.7</v>
+        <v>12.5</v>
       </c>
       <c r="AK30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL30">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM30">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AN30">
-        <v>6.4</v>
+        <v>20</v>
       </c>
       <c r="AO30">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AP30">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AQ30">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AR30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS30">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AT30">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AU30">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AV30">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="AW30">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AX30">
         <v>7.6</v>
       </c>
       <c r="AY30">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AZ30">
-        <v>3.65</v>
+        <v>5.9</v>
       </c>
       <c r="BA30">
+        <v>60</v>
+      </c>
+      <c r="BB30">
+        <v>6</v>
+      </c>
+      <c r="BC30">
         <v>75</v>
       </c>
-      <c r="BB30">
-        <v>3.65</v>
-      </c>
-      <c r="BC30">
-        <v>80</v>
-      </c>
       <c r="BD30">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -7033,19 +7018,19 @@
         <v>205</v>
       </c>
       <c r="F31">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="G31">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="H31">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="I31">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="J31">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K31">
         <v>3.4</v>
@@ -7054,142 +7039,142 @@
         <v>1.72</v>
       </c>
       <c r="M31">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="N31">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O31">
         <v>2.4</v>
       </c>
       <c r="P31">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="Q31">
+        <v>2.08</v>
+      </c>
+      <c r="R31">
+        <v>1.94</v>
+      </c>
+      <c r="S31">
         <v>2.12</v>
-      </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
-      <c r="S31">
-        <v>2.18</v>
       </c>
       <c r="T31">
         <v>9.199999999999999</v>
       </c>
       <c r="U31">
+        <v>12</v>
+      </c>
+      <c r="V31">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W31">
+        <v>10.5</v>
+      </c>
+      <c r="X31">
         <v>13</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
+        <v>19.5</v>
+      </c>
+      <c r="Z31">
+        <v>4.8</v>
+      </c>
+      <c r="AA31">
+        <v>48</v>
+      </c>
+      <c r="AB31">
         <v>9.199999999999999</v>
       </c>
-      <c r="W31">
-        <v>12</v>
-      </c>
-      <c r="X31">
-        <v>16</v>
-      </c>
-      <c r="Y31">
-        <v>24</v>
-      </c>
-      <c r="Z31">
-        <v>5</v>
-      </c>
-      <c r="AA31">
-        <v>65</v>
-      </c>
-      <c r="AB31">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AC31">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AD31">
         <v>6.6</v>
       </c>
       <c r="AE31">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG31">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AH31">
+        <v>5.2</v>
+      </c>
+      <c r="AI31">
+        <v>40</v>
+      </c>
+      <c r="AJ31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>24</v>
+      </c>
+      <c r="AL31">
+        <v>4.2</v>
+      </c>
+      <c r="AM31">
+        <v>16.5</v>
+      </c>
+      <c r="AN31">
+        <v>4.7</v>
+      </c>
+      <c r="AO31">
+        <v>25</v>
+      </c>
+      <c r="AP31">
         <v>4.8</v>
       </c>
-      <c r="AI31">
-        <v>46</v>
-      </c>
-      <c r="AJ31">
-        <v>12.5</v>
-      </c>
-      <c r="AK31">
-        <v>19</v>
-      </c>
-      <c r="AL31">
-        <v>10</v>
-      </c>
-      <c r="AM31">
-        <v>15</v>
-      </c>
-      <c r="AN31">
-        <v>16.5</v>
-      </c>
-      <c r="AO31">
-        <v>24</v>
-      </c>
-      <c r="AP31">
-        <v>5</v>
-      </c>
       <c r="AQ31">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR31">
         <v>4.8</v>
       </c>
       <c r="AS31">
+        <v>65</v>
+      </c>
+      <c r="AT31">
+        <v>5.1</v>
+      </c>
+      <c r="AU31">
         <v>46</v>
       </c>
-      <c r="AT31">
-        <v>4.7</v>
-      </c>
-      <c r="AU31">
-        <v>38</v>
-      </c>
       <c r="AV31">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AW31">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AX31">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AY31">
         <v>160</v>
       </c>
       <c r="AZ31">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="BA31">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="BB31">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="BC31">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BD31">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="BE31">
         <v>1000</v>
       </c>
-      <c r="BF31" t="s">
-        <v>238</v>
+      <c r="BF31">
+        <v>33142054</v>
       </c>
       <c r="BG31">
         <v>27282595</v>
@@ -7200,17 +7185,17 @@
       <c r="BI31">
         <v>58805</v>
       </c>
-      <c r="BJ31" t="s">
-        <v>239</v>
-      </c>
-      <c r="BK31" t="s">
-        <v>240</v>
-      </c>
-      <c r="BL31" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM31" t="s">
-        <v>242</v>
+      <c r="BJ31">
+        <v>1.227003031</v>
+      </c>
+      <c r="BK31">
+        <v>1.227003034</v>
+      </c>
+      <c r="BL31">
+        <v>1.227003078</v>
+      </c>
+      <c r="BM31">
+        <v>1.227003079</v>
       </c>
     </row>
     <row r="32" spans="1:65">
@@ -7230,160 +7215,160 @@
         <v>206</v>
       </c>
       <c r="F32">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <v>1.18</v>
       </c>
       <c r="I32">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J32">
         <v>10</v>
       </c>
       <c r="K32">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L32">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="M32">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="N32">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="O32">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P32">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q32">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R32">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="S32">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="T32">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="U32">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V32">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="W32">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X32">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y32">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z32">
         <v>9.199999999999999</v>
       </c>
       <c r="AA32">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB32">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="AC32">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AD32">
         <v>20</v>
       </c>
       <c r="AE32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF32">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG32">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH32">
         <v>11.5</v>
       </c>
       <c r="AI32">
+        <v>12.5</v>
+      </c>
+      <c r="AJ32">
         <v>14.5</v>
       </c>
-      <c r="AJ32">
-        <v>12</v>
-      </c>
       <c r="AK32">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AL32">
-        <v>10.5</v>
+        <v>46</v>
       </c>
       <c r="AM32">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN32">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="AO32">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AP32">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AQ32">
         <v>32</v>
       </c>
       <c r="AR32">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="AS32">
         <v>690</v>
       </c>
       <c r="AT32">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AU32">
         <v>230</v>
       </c>
       <c r="AV32">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AW32">
+        <v>160</v>
+      </c>
+      <c r="AX32">
+        <v>80</v>
+      </c>
+      <c r="AY32">
         <v>140</v>
-      </c>
-      <c r="AX32">
-        <v>26</v>
-      </c>
-      <c r="AY32">
-        <v>130</v>
       </c>
       <c r="AZ32">
         <v>20</v>
       </c>
       <c r="BA32">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="BB32">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="BC32">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="BD32">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE32">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="BF32">
         <v>33124073</v>
@@ -7427,157 +7412,157 @@
         <v>207</v>
       </c>
       <c r="F33">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G33">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="H33">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="I33">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="J33">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="K33">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="M33">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N33">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O33">
         <v>1.99</v>
       </c>
       <c r="P33">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="Q33">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="S33">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="T33">
-        <v>5.6</v>
+        <v>12</v>
       </c>
       <c r="U33">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="V33">
-        <v>5.3</v>
+        <v>16</v>
       </c>
       <c r="W33">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="X33">
-        <v>6.2</v>
+        <v>30</v>
       </c>
       <c r="Y33">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z33">
-        <v>6.6</v>
+        <v>13</v>
       </c>
       <c r="AA33">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AB33">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33">
+        <v>10</v>
+      </c>
+      <c r="AD33">
+        <v>7.8</v>
+      </c>
+      <c r="AE33">
         <v>9</v>
       </c>
-      <c r="AD33">
-        <v>4.1</v>
-      </c>
-      <c r="AE33">
-        <v>9.6</v>
-      </c>
       <c r="AF33">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG33">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AH33">
-        <v>6.4</v>
+        <v>42</v>
       </c>
       <c r="AI33">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ33">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK33">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AL33">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM33">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN33">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO33">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AP33">
-        <v>6.4</v>
+        <v>44</v>
       </c>
       <c r="AQ33">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AR33">
-        <v>5.2</v>
+        <v>18</v>
       </c>
       <c r="AS33">
         <v>21</v>
       </c>
       <c r="AT33">
-        <v>5.3</v>
+        <v>16.5</v>
       </c>
       <c r="AU33">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV33">
-        <v>6.2</v>
+        <v>29</v>
       </c>
       <c r="AW33">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AX33">
-        <v>6.6</v>
+        <v>15</v>
       </c>
       <c r="AY33">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AZ33">
-        <v>4.1</v>
+        <v>10</v>
       </c>
       <c r="BA33">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="BB33">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="BC33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="BD33">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7624,100 +7609,100 @@
         <v>208</v>
       </c>
       <c r="F34">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="G34">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="H34">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I34">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="J34">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L34">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="M34">
+        <v>2.36</v>
+      </c>
+      <c r="N34">
+        <v>1.74</v>
+      </c>
+      <c r="O34">
+        <v>1.76</v>
+      </c>
+      <c r="P34">
+        <v>1.65</v>
+      </c>
+      <c r="Q34">
+        <v>1.68</v>
+      </c>
+      <c r="R34">
+        <v>2.48</v>
+      </c>
+      <c r="S34">
         <v>2.54</v>
       </c>
-      <c r="N34">
-        <v>1.64</v>
-      </c>
-      <c r="O34">
-        <v>1.65</v>
-      </c>
-      <c r="P34">
-        <v>1.59</v>
-      </c>
-      <c r="Q34">
-        <v>1.62</v>
-      </c>
-      <c r="R34">
-        <v>2.62</v>
-      </c>
-      <c r="S34">
-        <v>2.7</v>
-      </c>
       <c r="T34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U34">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="V34">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="W34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="X34">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z34">
+        <v>60</v>
+      </c>
+      <c r="AA34">
         <v>65</v>
       </c>
-      <c r="AA34">
-        <v>70</v>
-      </c>
       <c r="AB34">
+        <v>11.5</v>
+      </c>
+      <c r="AC34">
         <v>12.5</v>
       </c>
-      <c r="AC34">
-        <v>13</v>
-      </c>
       <c r="AD34">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AE34">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AF34">
+        <v>14.5</v>
+      </c>
+      <c r="AG34">
         <v>15</v>
-      </c>
-      <c r="AG34">
-        <v>16</v>
       </c>
       <c r="AH34">
         <v>34</v>
       </c>
       <c r="AI34">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ34">
+        <v>13.5</v>
+      </c>
+      <c r="AK34">
         <v>14</v>
-      </c>
-      <c r="AK34">
-        <v>14.5</v>
       </c>
       <c r="AL34">
         <v>10</v>
@@ -7726,10 +7711,10 @@
         <v>10.5</v>
       </c>
       <c r="AN34">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO34">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP34">
         <v>38</v>
@@ -7738,22 +7723,22 @@
         <v>40</v>
       </c>
       <c r="AR34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS34">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT34">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AU34">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AV34">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX34">
         <v>55</v>
@@ -7762,22 +7747,22 @@
         <v>60</v>
       </c>
       <c r="AZ34">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="BA34">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="BB34">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC34">
         <v>32</v>
       </c>
       <c r="BD34">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="BE34">
-        <v>390</v>
+        <v>440</v>
       </c>
       <c r="BF34">
         <v>33115449</v>
@@ -7821,16 +7806,16 @@
         <v>209</v>
       </c>
       <c r="F35">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="G35">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="H35">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="I35">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="J35">
         <v>3.6</v>
@@ -7839,22 +7824,22 @@
         <v>3.65</v>
       </c>
       <c r="L35">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="M35">
         <v>2.14</v>
       </c>
       <c r="N35">
+        <v>1.88</v>
+      </c>
+      <c r="O35">
         <v>1.89</v>
-      </c>
-      <c r="O35">
-        <v>1.9</v>
       </c>
       <c r="P35">
         <v>1.71</v>
       </c>
       <c r="Q35">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R35">
         <v>2.36</v>
@@ -7863,34 +7848,34 @@
         <v>2.42</v>
       </c>
       <c r="T35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U35">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V35">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="W35">
         <v>13</v>
       </c>
       <c r="X35">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y35">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z35">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA35">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB35">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC35">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD35">
         <v>7.6</v>
@@ -7899,55 +7884,55 @@
         <v>7.8</v>
       </c>
       <c r="AF35">
+        <v>12</v>
+      </c>
+      <c r="AG35">
         <v>12.5</v>
       </c>
-      <c r="AG35">
-        <v>13</v>
-      </c>
       <c r="AH35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI35">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ35">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AK35">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL35">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM35">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN35">
         <v>15.5</v>
       </c>
       <c r="AO35">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP35">
+        <v>34</v>
+      </c>
+      <c r="AQ35">
         <v>36</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>38</v>
       </c>
-      <c r="AR35">
-        <v>34</v>
-      </c>
       <c r="AS35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AT35">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AW35">
         <v>38</v>
@@ -7959,22 +7944,22 @@
         <v>70</v>
       </c>
       <c r="AZ35">
+        <v>21</v>
+      </c>
+      <c r="BA35">
+        <v>22</v>
+      </c>
+      <c r="BB35">
+        <v>19.5</v>
+      </c>
+      <c r="BC35">
         <v>20</v>
       </c>
-      <c r="BA35">
-        <v>21</v>
-      </c>
-      <c r="BB35">
-        <v>20</v>
-      </c>
-      <c r="BC35">
-        <v>22</v>
-      </c>
       <c r="BD35">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="BE35">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="BF35">
         <v>33115405</v>
@@ -8018,25 +8003,25 @@
         <v>210</v>
       </c>
       <c r="F36">
+        <v>1.48</v>
+      </c>
+      <c r="G36">
         <v>1.5</v>
       </c>
-      <c r="G36">
-        <v>1.55</v>
-      </c>
       <c r="H36">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J36">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K36">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L36">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="M36">
         <v>1.99</v>
@@ -8045,40 +8030,40 @@
         <v>2.02</v>
       </c>
       <c r="O36">
+        <v>2.2</v>
+      </c>
+      <c r="P36">
         <v>2.14</v>
       </c>
-      <c r="P36">
-        <v>2.12</v>
-      </c>
       <c r="Q36">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S36">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="T36">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U36">
         <v>15</v>
       </c>
       <c r="V36">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="W36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X36">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y36">
         <v>80</v>
       </c>
       <c r="Z36">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA36">
         <v>1000</v>
@@ -8087,25 +8072,25 @@
         <v>6.4</v>
       </c>
       <c r="AC36">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD36">
-        <v>4.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE36">
         <v>11</v>
       </c>
       <c r="AF36">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AG36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AH36">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI36">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ36">
         <v>7</v>
@@ -8114,61 +8099,61 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AL36">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="AM36">
         <v>11.5</v>
       </c>
       <c r="AN36">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO36">
         <v>32</v>
       </c>
       <c r="AP36">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AQ36">
         <v>160</v>
       </c>
       <c r="AR36">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="AS36">
         <v>15</v>
       </c>
       <c r="AT36">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="AU36">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV36">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AW36">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX36">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AY36">
         <v>210</v>
       </c>
       <c r="AZ36">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BA36">
-        <v>55</v>
+        <v>9.4</v>
       </c>
       <c r="BB36">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="BC36">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="BD36">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8215,160 +8200,160 @@
         <v>211</v>
       </c>
       <c r="F37">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="G37">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="H37">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I37">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J37">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K37">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L37">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="M37">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="N37">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O37">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="P37">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q37">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R37">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="S37">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T37">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="U37">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="V37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W37">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="X37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y37">
+        <v>24</v>
+      </c>
+      <c r="Z37">
+        <v>34</v>
+      </c>
+      <c r="AA37">
+        <v>60</v>
+      </c>
+      <c r="AB37">
+        <v>10.5</v>
+      </c>
+      <c r="AC37">
+        <v>12</v>
+      </c>
+      <c r="AD37">
+        <v>7.6</v>
+      </c>
+      <c r="AE37">
+        <v>8</v>
+      </c>
+      <c r="AF37">
+        <v>13.5</v>
+      </c>
+      <c r="AG37">
+        <v>14.5</v>
+      </c>
+      <c r="AH37">
+        <v>32</v>
+      </c>
+      <c r="AI37">
         <v>36</v>
       </c>
-      <c r="Z37">
-        <v>7.8</v>
-      </c>
-      <c r="AA37">
-        <v>85</v>
-      </c>
-      <c r="AB37">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC37">
+      <c r="AJ37">
+        <v>14</v>
+      </c>
+      <c r="AK37">
+        <v>15.5</v>
+      </c>
+      <c r="AL37">
+        <v>10</v>
+      </c>
+      <c r="AM37">
         <v>11.5</v>
-      </c>
-      <c r="AD37">
-        <v>7.8</v>
-      </c>
-      <c r="AE37">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AF37">
-        <v>14.5</v>
-      </c>
-      <c r="AG37">
-        <v>16.5</v>
-      </c>
-      <c r="AH37">
-        <v>7.2</v>
-      </c>
-      <c r="AI37">
-        <v>50</v>
-      </c>
-      <c r="AJ37">
-        <v>12</v>
-      </c>
-      <c r="AK37">
-        <v>14</v>
-      </c>
-      <c r="AL37">
-        <v>9.4</v>
-      </c>
-      <c r="AM37">
-        <v>11</v>
       </c>
       <c r="AN37">
         <v>15</v>
       </c>
       <c r="AO37">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AP37">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="AQ37">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AR37">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AS37">
         <v>30</v>
       </c>
       <c r="AT37">
+        <v>20</v>
+      </c>
+      <c r="AU37">
+        <v>23</v>
+      </c>
+      <c r="AV37">
+        <v>30</v>
+      </c>
+      <c r="AW37">
+        <v>34</v>
+      </c>
+      <c r="AX37">
+        <v>40</v>
+      </c>
+      <c r="AY37">
+        <v>240</v>
+      </c>
+      <c r="AZ37">
+        <v>13</v>
+      </c>
+      <c r="BA37">
+        <v>15</v>
+      </c>
+      <c r="BB37">
+        <v>25</v>
+      </c>
+      <c r="BC37">
+        <v>30</v>
+      </c>
+      <c r="BD37">
         <v>17.5</v>
       </c>
-      <c r="AU37">
-        <v>21</v>
-      </c>
-      <c r="AV37">
-        <v>7</v>
-      </c>
-      <c r="AW37">
-        <v>40</v>
-      </c>
-      <c r="AX37">
-        <v>26</v>
-      </c>
-      <c r="AY37">
-        <v>100</v>
-      </c>
-      <c r="AZ37">
-        <v>5.1</v>
-      </c>
-      <c r="BA37">
-        <v>12.5</v>
-      </c>
-      <c r="BB37">
-        <v>7.2</v>
-      </c>
-      <c r="BC37">
-        <v>44</v>
-      </c>
-      <c r="BD37">
-        <v>8.4</v>
-      </c>
       <c r="BE37">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="BF37">
         <v>33153087</v>
@@ -8412,34 +8397,34 @@
         <v>212</v>
       </c>
       <c r="F38">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="G38">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H38">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="I38">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="J38">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="K38">
         <v>5.4</v>
       </c>
       <c r="L38">
-        <v>1.28</v>
+        <v>2.16</v>
       </c>
       <c r="M38">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="N38">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="O38">
-        <v>4.6</v>
+        <v>1.85</v>
       </c>
       <c r="P38">
         <v>1.12</v>
@@ -8609,34 +8594,34 @@
         <v>213</v>
       </c>
       <c r="F39">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="G39">
-        <v>480</v>
+        <v>2.8</v>
       </c>
       <c r="H39">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="I39">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J39">
-        <v>1.75</v>
+        <v>2.62</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="L39">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M39">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="N39">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="O39">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
         <v>1.12</v>
@@ -8806,31 +8791,31 @@
         <v>214</v>
       </c>
       <c r="F40">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G40">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="J40">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K40">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L40">
         <v>1.93</v>
       </c>
       <c r="M40">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="N40">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="O40">
         <v>2.08</v>
@@ -8839,10 +8824,10 @@
         <v>1.88</v>
       </c>
       <c r="Q40">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R40">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S40">
         <v>2.14</v>
@@ -8851,112 +8836,112 @@
         <v>12</v>
       </c>
       <c r="U40">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V40">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="W40">
+        <v>9</v>
+      </c>
+      <c r="X40">
         <v>9.4</v>
       </c>
-      <c r="X40">
-        <v>9.199999999999999</v>
-      </c>
       <c r="Y40">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z40">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA40">
         <v>21</v>
       </c>
       <c r="AB40">
-        <v>5.4</v>
+        <v>14.5</v>
       </c>
       <c r="AC40">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AD40">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AE40">
         <v>14</v>
       </c>
       <c r="AF40">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG40">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="AI40">
         <v>22</v>
       </c>
       <c r="AJ40">
-        <v>6.4</v>
+        <v>28</v>
       </c>
       <c r="AK40">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL40">
-        <v>5.6</v>
+        <v>16</v>
       </c>
       <c r="AM40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN40">
-        <v>8.4</v>
+        <v>16</v>
       </c>
       <c r="AO40">
         <v>23</v>
       </c>
       <c r="AP40">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="AQ40">
         <v>42</v>
       </c>
       <c r="AR40">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="AS40">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AT40">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU40">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AV40">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW40">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AX40">
-        <v>7.2</v>
+        <v>55</v>
       </c>
       <c r="AY40">
         <v>130</v>
       </c>
       <c r="AZ40">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="BA40">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB40">
-        <v>4.7</v>
+        <v>6.4</v>
       </c>
       <c r="BC40">
         <v>55</v>
       </c>
       <c r="BD40">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -9009,52 +8994,52 @@
         <v>3.75</v>
       </c>
       <c r="H41">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I41">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="J41">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K41">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="M41">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="N41">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O41">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="P41">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q41">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R41">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S41">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="T41">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U41">
         <v>980</v>
       </c>
       <c r="V41">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="W41">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="X41">
         <v>11.5</v>
@@ -9066,19 +9051,19 @@
         <v>7.2</v>
       </c>
       <c r="AA41">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB41">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC41">
         <v>980</v>
       </c>
       <c r="AD41">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AE41">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AF41">
         <v>9.6</v>
@@ -9087,16 +9072,16 @@
         <v>980</v>
       </c>
       <c r="AH41">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI41">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ41">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AK41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL41">
         <v>12.5</v>
@@ -9105,55 +9090,55 @@
         <v>980</v>
       </c>
       <c r="AN41">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO41">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AP41">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AQ41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AR41">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="AS41">
         <v>75</v>
       </c>
       <c r="AT41">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AU41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AV41">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AW41">
         <v>65</v>
       </c>
       <c r="AX41">
-        <v>4.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AY41">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AZ41">
-        <v>2.78</v>
+        <v>8</v>
       </c>
       <c r="BA41">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB41">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="BC41">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BD41">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="BE41">
         <v>1000</v>
@@ -9200,58 +9185,58 @@
         <v>216</v>
       </c>
       <c r="F42">
+        <v>2.6</v>
+      </c>
+      <c r="G42">
         <v>2.62</v>
       </c>
-      <c r="G42">
-        <v>2.64</v>
-      </c>
       <c r="H42">
+        <v>2.9</v>
+      </c>
+      <c r="I42">
         <v>2.92</v>
       </c>
-      <c r="I42">
-        <v>2.96</v>
-      </c>
       <c r="J42">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K42">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L42">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="M42">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="N42">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="O42">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="P42">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q42">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="R42">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="S42">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V42">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="W42">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X42">
         <v>18</v>
@@ -9260,34 +9245,34 @@
         <v>19</v>
       </c>
       <c r="Z42">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA42">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB42">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC42">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD42">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE42">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF42">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG42">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH42">
+        <v>27</v>
+      </c>
+      <c r="AI42">
         <v>29</v>
-      </c>
-      <c r="AI42">
-        <v>30</v>
       </c>
       <c r="AJ42">
         <v>16</v>
@@ -9296,10 +9281,10 @@
         <v>17</v>
       </c>
       <c r="AL42">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM42">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN42">
         <v>15.5</v>
@@ -9308,49 +9293,49 @@
         <v>16</v>
       </c>
       <c r="AP42">
+        <v>36</v>
+      </c>
+      <c r="AQ42">
         <v>38</v>
       </c>
-      <c r="AQ42">
-        <v>40</v>
-      </c>
       <c r="AR42">
+        <v>34</v>
+      </c>
+      <c r="AS42">
         <v>36</v>
       </c>
-      <c r="AS42">
-        <v>38</v>
-      </c>
       <c r="AT42">
+        <v>24</v>
+      </c>
+      <c r="AU42">
         <v>25</v>
-      </c>
-      <c r="AU42">
-        <v>26</v>
       </c>
       <c r="AV42">
         <v>34</v>
       </c>
       <c r="AW42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AX42">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AY42">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AZ42">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA42">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB42">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC42">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD42">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="BE42">
         <v>1000</v>
@@ -9397,16 +9382,16 @@
         <v>217</v>
       </c>
       <c r="F43">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G43">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H43">
+        <v>3.9</v>
+      </c>
+      <c r="I43">
         <v>3.95</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
       </c>
       <c r="J43">
         <v>3.8</v>
@@ -9421,7 +9406,7 @@
         <v>2.18</v>
       </c>
       <c r="N43">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O43">
         <v>1.87</v>
@@ -9430,19 +9415,19 @@
         <v>1.73</v>
       </c>
       <c r="Q43">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R43">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="S43">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T43">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="U43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V43">
         <v>16</v>
@@ -9451,10 +9436,10 @@
         <v>17</v>
       </c>
       <c r="X43">
+        <v>25</v>
+      </c>
+      <c r="Y43">
         <v>27</v>
-      </c>
-      <c r="Y43">
-        <v>28</v>
       </c>
       <c r="Z43">
         <v>65</v>
@@ -9466,22 +9451,22 @@
         <v>10</v>
       </c>
       <c r="AC43">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD43">
         <v>8.199999999999999</v>
       </c>
       <c r="AE43">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF43">
         <v>15</v>
       </c>
       <c r="AG43">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH43">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI43">
         <v>42</v>
@@ -9499,28 +9484,28 @@
         <v>10.5</v>
       </c>
       <c r="AN43">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO43">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP43">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AQ43">
         <v>48</v>
       </c>
       <c r="AR43">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS43">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU43">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AV43">
         <v>30</v>
@@ -9529,19 +9514,19 @@
         <v>32</v>
       </c>
       <c r="AX43">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AY43">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AZ43">
         <v>11</v>
       </c>
       <c r="BA43">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BB43">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="BC43">
         <v>38</v>
@@ -9594,40 +9579,40 @@
         <v>218</v>
       </c>
       <c r="F44">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="H44">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="I44">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="J44">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K44">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="L44">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="N44">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O44">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="P44">
         <v>1.77</v>
       </c>
       <c r="Q44">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R44">
         <v>2.16</v>
@@ -9639,112 +9624,112 @@
         <v>12.5</v>
       </c>
       <c r="U44">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="V44">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="W44">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X44">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y44">
         <v>14.5</v>
       </c>
       <c r="Z44">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AA44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB44">
+        <v>12.5</v>
+      </c>
+      <c r="AC44">
         <v>13.5</v>
       </c>
-      <c r="AC44">
-        <v>15.5</v>
-      </c>
       <c r="AD44">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AE44">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AF44">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG44">
         <v>11</v>
       </c>
       <c r="AH44">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AI44">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ44">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AK44">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL44">
         <v>13</v>
       </c>
       <c r="AM44">
+        <v>14.5</v>
+      </c>
+      <c r="AN44">
+        <v>16</v>
+      </c>
+      <c r="AO44">
         <v>17.5</v>
       </c>
-      <c r="AN44">
-        <v>14.5</v>
-      </c>
-      <c r="AO44">
-        <v>20</v>
-      </c>
       <c r="AP44">
-        <v>7.2</v>
+        <v>32</v>
       </c>
       <c r="AQ44">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AR44">
-        <v>8.199999999999999</v>
+        <v>44</v>
       </c>
       <c r="AS44">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AT44">
-        <v>7.6</v>
+        <v>30</v>
       </c>
       <c r="AU44">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AV44">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="AW44">
         <v>55</v>
       </c>
       <c r="AX44">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AY44">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AZ44">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="BA44">
         <v>44</v>
       </c>
       <c r="BB44">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
       <c r="BC44">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="BD44">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="BE44">
         <v>1000</v>
@@ -9791,13 +9776,13 @@
         <v>219</v>
       </c>
       <c r="F45">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G45">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H45">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I45">
         <v>4.3</v>
@@ -9806,34 +9791,34 @@
         <v>3.35</v>
       </c>
       <c r="K45">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L45">
         <v>1.81</v>
       </c>
       <c r="M45">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="N45">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O45">
         <v>2.24</v>
       </c>
       <c r="P45">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q45">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T45">
-        <v>5</v>
+        <v>9.6</v>
       </c>
       <c r="U45">
         <v>13</v>
@@ -9842,7 +9827,7 @@
         <v>11</v>
       </c>
       <c r="W45">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="X45">
         <v>6.2</v>
@@ -9851,7 +9836,7 @@
         <v>980</v>
       </c>
       <c r="Z45">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AA45">
         <v>980</v>
@@ -9860,7 +9845,7 @@
         <v>7.4</v>
       </c>
       <c r="AC45">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD45">
         <v>7</v>
@@ -9872,10 +9857,10 @@
         <v>13.5</v>
       </c>
       <c r="AG45">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH45">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AI45">
         <v>980</v>
@@ -9887,16 +9872,16 @@
         <v>13.5</v>
       </c>
       <c r="AL45">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AM45">
         <v>12</v>
       </c>
       <c r="AN45">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="AO45">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AP45">
         <v>9.199999999999999</v>
@@ -9905,37 +9890,37 @@
         <v>980</v>
       </c>
       <c r="AR45">
-        <v>6.2</v>
+        <v>20</v>
       </c>
       <c r="AS45">
         <v>980</v>
       </c>
       <c r="AT45">
-        <v>6.2</v>
+        <v>19.5</v>
       </c>
       <c r="AU45">
         <v>980</v>
       </c>
       <c r="AV45">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AW45">
         <v>980</v>
       </c>
       <c r="AX45">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY45">
         <v>980</v>
       </c>
       <c r="AZ45">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="BA45">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="BB45">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="BC45">
         <v>980</v>
@@ -9988,157 +9973,157 @@
         <v>220</v>
       </c>
       <c r="F46">
+        <v>7</v>
+      </c>
+      <c r="G46">
         <v>8</v>
       </c>
-      <c r="G46">
+      <c r="H46">
+        <v>1.47</v>
+      </c>
+      <c r="I46">
+        <v>1.54</v>
+      </c>
+      <c r="J46">
+        <v>4.7</v>
+      </c>
+      <c r="K46">
+        <v>5.3</v>
+      </c>
+      <c r="L46">
+        <v>2.2</v>
+      </c>
+      <c r="M46">
+        <v>2.4</v>
+      </c>
+      <c r="N46">
+        <v>1.72</v>
+      </c>
+      <c r="O46">
+        <v>1.83</v>
+      </c>
+      <c r="P46">
+        <v>1.89</v>
+      </c>
+      <c r="Q46">
+        <v>2.04</v>
+      </c>
+      <c r="R46">
+        <v>1.96</v>
+      </c>
+      <c r="S46">
+        <v>2.12</v>
+      </c>
+      <c r="T46">
+        <v>16</v>
+      </c>
+      <c r="U46">
+        <v>19</v>
+      </c>
+      <c r="V46">
+        <v>8</v>
+      </c>
+      <c r="W46">
         <v>9.4</v>
       </c>
-      <c r="H46">
-        <v>1.41</v>
-      </c>
-      <c r="I46">
-        <v>1.43</v>
-      </c>
-      <c r="J46">
-        <v>5.1</v>
-      </c>
-      <c r="K46">
-        <v>5.7</v>
-      </c>
-      <c r="L46">
-        <v>2.22</v>
-      </c>
-      <c r="M46">
-        <v>2.42</v>
-      </c>
-      <c r="N46">
-        <v>1.71</v>
-      </c>
-      <c r="O46">
-        <v>1.81</v>
-      </c>
-      <c r="P46">
-        <v>1.94</v>
-      </c>
-      <c r="Q46">
-        <v>2.12</v>
-      </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>2.06</v>
-      </c>
-      <c r="T46">
-        <v>2.2</v>
-      </c>
-      <c r="U46">
-        <v>23</v>
-      </c>
-      <c r="V46">
-        <v>4</v>
-      </c>
-      <c r="W46">
-        <v>9.199999999999999</v>
-      </c>
       <c r="X46">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y46">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z46">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AA46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB46">
-        <v>4.2</v>
+        <v>22</v>
       </c>
       <c r="AC46">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AD46">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="AE46">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AF46">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG46">
         <v>10.5</v>
       </c>
       <c r="AH46">
-        <v>3.4</v>
+        <v>13.5</v>
       </c>
       <c r="AI46">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AJ46">
-        <v>4.2</v>
+        <v>18.5</v>
       </c>
       <c r="AK46">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL46">
-        <v>4.2</v>
+        <v>23</v>
       </c>
       <c r="AM46">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AN46">
-        <v>2.64</v>
+        <v>11</v>
       </c>
       <c r="AO46">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AP46">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="AQ46">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AR46">
-        <v>4.3</v>
+        <v>8.4</v>
       </c>
       <c r="AS46">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AT46">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="AU46">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AV46">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="AW46">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AX46">
-        <v>4.1</v>
+        <v>13</v>
       </c>
       <c r="AY46">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AZ46">
-        <v>4.2</v>
+        <v>12.5</v>
       </c>
       <c r="BA46">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BB46">
-        <v>2.58</v>
+        <v>4.8</v>
       </c>
       <c r="BC46">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BD46">
-        <v>4.2</v>
+        <v>14</v>
       </c>
       <c r="BE46">
         <v>1000</v>
@@ -10185,115 +10170,115 @@
         <v>221</v>
       </c>
       <c r="F47">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="G47">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="H47">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K47">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L47">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="M47">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N47">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O47">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P47">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="Q47">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R47">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="S47">
-        <v>2.06</v>
+        <v>1.97</v>
       </c>
       <c r="T47">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="U47">
         <v>980</v>
       </c>
       <c r="V47">
-        <v>8.4</v>
+        <v>80</v>
       </c>
       <c r="W47">
         <v>980</v>
       </c>
       <c r="X47">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="Y47">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z47">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="AA47">
         <v>1000</v>
       </c>
       <c r="AB47">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC47">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AD47">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE47">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF47">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="AG47">
         <v>980</v>
       </c>
       <c r="AH47">
-        <v>8.800000000000001</v>
+        <v>100</v>
       </c>
       <c r="AI47">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ47">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK47">
         <v>11</v>
       </c>
       <c r="AL47">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN47">
-        <v>7.4</v>
+        <v>29</v>
       </c>
       <c r="AO47">
         <v>980</v>
       </c>
       <c r="AP47">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="AQ47">
         <v>980</v>
@@ -10311,31 +10296,31 @@
         <v>14.5</v>
       </c>
       <c r="AV47">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="AW47">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AX47">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="AY47">
         <v>980</v>
       </c>
       <c r="AZ47">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="BA47">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="BB47">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="BC47">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD47">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BE47">
         <v>1000</v>
@@ -10385,13 +10370,13 @@
         <v>4.5</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H48">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I48">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="J48">
         <v>3.95</v>
@@ -10400,139 +10385,139 @@
         <v>4.4</v>
       </c>
       <c r="L48">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="M48">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="O48">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="P48">
         <v>1.74</v>
       </c>
       <c r="Q48">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R48">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S48">
         <v>2.36</v>
       </c>
       <c r="T48">
-        <v>5.5</v>
+        <v>15.5</v>
       </c>
       <c r="U48">
         <v>19.5</v>
       </c>
       <c r="V48">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W48">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X48">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="Y48">
         <v>13</v>
       </c>
       <c r="Z48">
-        <v>5.7</v>
+        <v>17.5</v>
       </c>
       <c r="AA48">
         <v>22</v>
       </c>
       <c r="AB48">
-        <v>5.6</v>
+        <v>15.5</v>
       </c>
       <c r="AC48">
         <v>21</v>
       </c>
       <c r="AD48">
-        <v>4.4</v>
+        <v>8.4</v>
       </c>
       <c r="AE48">
+        <v>9.6</v>
+      </c>
+      <c r="AF48">
+        <v>9</v>
+      </c>
+      <c r="AG48">
         <v>10.5</v>
       </c>
-      <c r="AF48">
-        <v>4.7</v>
-      </c>
-      <c r="AG48">
-        <v>11.5</v>
-      </c>
       <c r="AH48">
-        <v>5.7</v>
+        <v>15.5</v>
       </c>
       <c r="AI48">
         <v>19.5</v>
       </c>
       <c r="AJ48">
-        <v>6.4</v>
+        <v>25</v>
       </c>
       <c r="AK48">
         <v>40</v>
       </c>
       <c r="AL48">
-        <v>5.6</v>
+        <v>14.5</v>
       </c>
       <c r="AM48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN48">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="AO48">
         <v>21</v>
       </c>
       <c r="AP48">
-        <v>6.2</v>
+        <v>23</v>
       </c>
       <c r="AQ48">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AR48">
-        <v>3.45</v>
+        <v>55</v>
       </c>
       <c r="AS48">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AT48">
-        <v>6.8</v>
+        <v>36</v>
       </c>
       <c r="AU48">
         <v>60</v>
       </c>
       <c r="AV48">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AW48">
+        <v>65</v>
+      </c>
+      <c r="AX48">
+        <v>50</v>
+      </c>
+      <c r="AY48">
+        <v>240</v>
+      </c>
+      <c r="AZ48">
+        <v>7.4</v>
+      </c>
+      <c r="BA48">
         <v>60</v>
       </c>
-      <c r="AX48">
-        <v>2.98</v>
-      </c>
-      <c r="AY48">
-        <v>200</v>
-      </c>
-      <c r="AZ48">
-        <v>3.35</v>
-      </c>
-      <c r="BA48">
-        <v>55</v>
-      </c>
       <c r="BB48">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="BC48">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="BD48">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="BE48">
         <v>1000</v>
@@ -10579,160 +10564,160 @@
         <v>223</v>
       </c>
       <c r="F49">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H49">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="I49">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="J49">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="K49">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L49">
         <v>3.55</v>
       </c>
       <c r="M49">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="N49">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="O49">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P49">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="Q49">
+        <v>1.91</v>
+      </c>
+      <c r="R49">
         <v>2.1</v>
       </c>
-      <c r="R49">
-        <v>1.91</v>
-      </c>
       <c r="S49">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="T49">
-        <v>5.6</v>
+        <v>36</v>
       </c>
       <c r="U49">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="V49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W49">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="X49">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y49">
         <v>11</v>
       </c>
       <c r="Z49">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AA49">
         <v>11.5</v>
       </c>
       <c r="AB49">
-        <v>5.8</v>
+        <v>46</v>
       </c>
       <c r="AC49">
+        <v>70</v>
+      </c>
+      <c r="AD49">
+        <v>16</v>
+      </c>
+      <c r="AE49">
+        <v>18.5</v>
+      </c>
+      <c r="AF49">
+        <v>10.5</v>
+      </c>
+      <c r="AG49">
+        <v>12</v>
+      </c>
+      <c r="AH49">
+        <v>11</v>
+      </c>
+      <c r="AI49">
+        <v>13</v>
+      </c>
+      <c r="AJ49">
+        <v>75</v>
+      </c>
+      <c r="AK49">
+        <v>140</v>
+      </c>
+      <c r="AL49">
+        <v>36</v>
+      </c>
+      <c r="AM49">
+        <v>44</v>
+      </c>
+      <c r="AN49">
+        <v>24</v>
+      </c>
+      <c r="AO49">
+        <v>27</v>
+      </c>
+      <c r="AP49">
+        <v>23</v>
+      </c>
+      <c r="AQ49">
+        <v>28</v>
+      </c>
+      <c r="AR49">
+        <v>100</v>
+      </c>
+      <c r="AS49">
+        <v>570</v>
+      </c>
+      <c r="AT49">
+        <v>75</v>
+      </c>
+      <c r="AU49">
+        <v>160</v>
+      </c>
+      <c r="AV49">
+        <v>55</v>
+      </c>
+      <c r="AW49">
+        <v>120</v>
+      </c>
+      <c r="AX49">
+        <v>46</v>
+      </c>
+      <c r="AY49">
+        <v>110</v>
+      </c>
+      <c r="AZ49">
+        <v>15</v>
+      </c>
+      <c r="BA49">
+        <v>130</v>
+      </c>
+      <c r="BB49">
+        <v>3.05</v>
+      </c>
+      <c r="BC49">
+        <v>3.35</v>
+      </c>
+      <c r="BD49">
+        <v>15</v>
+      </c>
+      <c r="BE49">
         <v>980</v>
-      </c>
-      <c r="AD49">
-        <v>15</v>
-      </c>
-      <c r="AE49">
-        <v>26</v>
-      </c>
-      <c r="AF49">
-        <v>9.4</v>
-      </c>
-      <c r="AG49">
-        <v>15.5</v>
-      </c>
-      <c r="AH49">
-        <v>9.6</v>
-      </c>
-      <c r="AI49">
-        <v>16</v>
-      </c>
-      <c r="AJ49">
-        <v>6</v>
-      </c>
-      <c r="AK49">
-        <v>980</v>
-      </c>
-      <c r="AL49">
-        <v>5.7</v>
-      </c>
-      <c r="AM49">
-        <v>980</v>
-      </c>
-      <c r="AN49">
-        <v>5.4</v>
-      </c>
-      <c r="AO49">
-        <v>42</v>
-      </c>
-      <c r="AP49">
-        <v>5.3</v>
-      </c>
-      <c r="AQ49">
-        <v>40</v>
-      </c>
-      <c r="AR49">
-        <v>6</v>
-      </c>
-      <c r="AS49">
-        <v>1000</v>
-      </c>
-      <c r="AT49">
-        <v>6</v>
-      </c>
-      <c r="AU49">
-        <v>980</v>
-      </c>
-      <c r="AV49">
-        <v>6</v>
-      </c>
-      <c r="AW49">
-        <v>980</v>
-      </c>
-      <c r="AX49">
-        <v>6</v>
-      </c>
-      <c r="AY49">
-        <v>980</v>
-      </c>
-      <c r="AZ49">
-        <v>6</v>
-      </c>
-      <c r="BA49">
-        <v>980</v>
-      </c>
-      <c r="BB49">
-        <v>2.06</v>
-      </c>
-      <c r="BC49">
-        <v>3.1</v>
-      </c>
-      <c r="BD49">
-        <v>6</v>
-      </c>
-      <c r="BE49">
-        <v>1000</v>
       </c>
       <c r="BF49">
         <v>33153050</v>
@@ -10776,10 +10761,10 @@
         <v>224</v>
       </c>
       <c r="F50">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="G50">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="H50">
         <v>3.5</v>
@@ -10794,25 +10779,25 @@
         <v>3.4</v>
       </c>
       <c r="L50">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="M50">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="N50">
+        <v>2.2</v>
+      </c>
+      <c r="O50">
         <v>2.22</v>
-      </c>
-      <c r="O50">
-        <v>2.26</v>
       </c>
       <c r="P50">
         <v>1.9</v>
       </c>
       <c r="Q50">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R50">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="S50">
         <v>2.12</v>
@@ -10821,10 +10806,10 @@
         <v>10</v>
       </c>
       <c r="U50">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V50">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W50">
         <v>12</v>
@@ -10836,22 +10821,22 @@
         <v>23</v>
       </c>
       <c r="Z50">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="AA50">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AB50">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC50">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD50">
         <v>7</v>
       </c>
       <c r="AE50">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF50">
         <v>13.5</v>
@@ -10860,7 +10845,7 @@
         <v>15</v>
       </c>
       <c r="AH50">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AI50">
         <v>44</v>
@@ -10875,16 +10860,16 @@
         <v>10.5</v>
       </c>
       <c r="AM50">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AN50">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO50">
         <v>22</v>
       </c>
       <c r="AP50">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AQ50">
         <v>60</v>
@@ -10902,31 +10887,31 @@
         <v>27</v>
       </c>
       <c r="AV50">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AW50">
         <v>46</v>
       </c>
       <c r="AX50">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="AY50">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA50">
         <v>24</v>
       </c>
       <c r="BB50">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC50">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="BD50">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BE50">
         <v>900</v>
@@ -10973,160 +10958,160 @@
         <v>225</v>
       </c>
       <c r="F51">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G51">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H51">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="I51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J51">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="M51">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="N51">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="O51">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="P51">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="Q51">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R51">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="S51">
-        <v>2.46</v>
+        <v>2.22</v>
       </c>
       <c r="T51">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="U51">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V51">
+        <v>10.5</v>
+      </c>
+      <c r="W51">
         <v>12</v>
       </c>
-      <c r="W51">
-        <v>14</v>
-      </c>
       <c r="X51">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y51">
         <v>22</v>
       </c>
       <c r="Z51">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AA51">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB51">
+        <v>9</v>
+      </c>
+      <c r="AC51">
+        <v>9.6</v>
+      </c>
+      <c r="AD51">
+        <v>6.8</v>
+      </c>
+      <c r="AE51">
+        <v>7.4</v>
+      </c>
+      <c r="AF51">
+        <v>13</v>
+      </c>
+      <c r="AG51">
+        <v>14.5</v>
+      </c>
+      <c r="AH51">
+        <v>34</v>
+      </c>
+      <c r="AI51">
+        <v>40</v>
+      </c>
+      <c r="AJ51">
+        <v>13</v>
+      </c>
+      <c r="AK51">
+        <v>14.5</v>
+      </c>
+      <c r="AL51">
         <v>10.5</v>
-      </c>
-      <c r="AC51">
-        <v>12</v>
-      </c>
-      <c r="AD51">
-        <v>7.6</v>
-      </c>
-      <c r="AE51">
-        <v>8.6</v>
-      </c>
-      <c r="AF51">
-        <v>11.5</v>
-      </c>
-      <c r="AG51">
-        <v>13.5</v>
-      </c>
-      <c r="AH51">
-        <v>18.5</v>
-      </c>
-      <c r="AI51">
-        <v>32</v>
-      </c>
-      <c r="AJ51">
-        <v>14.5</v>
-      </c>
-      <c r="AK51">
-        <v>17</v>
-      </c>
-      <c r="AL51">
-        <v>10</v>
       </c>
       <c r="AM51">
         <v>11.5</v>
       </c>
       <c r="AN51">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP51">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AQ51">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AR51">
+        <v>30</v>
+      </c>
+      <c r="AS51">
+        <v>34</v>
+      </c>
+      <c r="AT51">
+        <v>24</v>
+      </c>
+      <c r="AU51">
+        <v>28</v>
+      </c>
+      <c r="AV51">
+        <v>38</v>
+      </c>
+      <c r="AW51">
+        <v>44</v>
+      </c>
+      <c r="AX51">
+        <v>85</v>
+      </c>
+      <c r="AY51">
+        <v>110</v>
+      </c>
+      <c r="AZ51">
+        <v>21</v>
+      </c>
+      <c r="BA51">
         <v>23</v>
       </c>
-      <c r="AS51">
-        <v>36</v>
-      </c>
-      <c r="AT51">
-        <v>21</v>
-      </c>
-      <c r="AU51">
-        <v>25</v>
-      </c>
-      <c r="AV51">
+      <c r="BB51">
+        <v>12.5</v>
+      </c>
+      <c r="BC51">
+        <v>38</v>
+      </c>
+      <c r="BD51">
         <v>19.5</v>
       </c>
-      <c r="AW51">
-        <v>38</v>
-      </c>
-      <c r="AX51">
-        <v>26</v>
-      </c>
-      <c r="AY51">
-        <v>90</v>
-      </c>
-      <c r="AZ51">
-        <v>8.4</v>
-      </c>
-      <c r="BA51">
-        <v>18</v>
-      </c>
-      <c r="BB51">
-        <v>9.4</v>
-      </c>
-      <c r="BC51">
-        <v>25</v>
-      </c>
-      <c r="BD51">
-        <v>14.5</v>
-      </c>
       <c r="BE51">
-        <v>710</v>
+        <v>1000</v>
       </c>
       <c r="BF51">
         <v>33119656</v>
@@ -11170,94 +11155,94 @@
         <v>226</v>
       </c>
       <c r="F52">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G52">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H52">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I52">
         <v>3.1</v>
       </c>
       <c r="J52">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K52">
         <v>3.7</v>
       </c>
       <c r="L52">
+        <v>2.04</v>
+      </c>
+      <c r="M52">
+        <v>2.14</v>
+      </c>
+      <c r="N52">
         <v>1.89</v>
       </c>
-      <c r="M52">
-        <v>2.04</v>
-      </c>
-      <c r="N52">
-        <v>1.97</v>
-      </c>
       <c r="O52">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="P52">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="Q52">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R52">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="S52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T52">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="U52">
+        <v>17</v>
+      </c>
+      <c r="V52">
+        <v>11</v>
+      </c>
+      <c r="W52">
         <v>14.5</v>
       </c>
-      <c r="V52">
-        <v>10</v>
-      </c>
-      <c r="W52">
-        <v>980</v>
-      </c>
       <c r="X52">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y52">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z52">
-        <v>5.2</v>
+        <v>30</v>
       </c>
       <c r="AA52">
         <v>50</v>
       </c>
       <c r="AB52">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD52">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE52">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF52">
         <v>10.5</v>
       </c>
       <c r="AG52">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH52">
-        <v>6.8</v>
+        <v>23</v>
       </c>
       <c r="AI52">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ52">
         <v>14</v>
@@ -11266,61 +11251,61 @@
         <v>18.5</v>
       </c>
       <c r="AL52">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AM52">
         <v>13</v>
       </c>
       <c r="AN52">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO52">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AP52">
-        <v>6.8</v>
+        <v>28</v>
       </c>
       <c r="AQ52">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AR52">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AS52">
         <v>40</v>
       </c>
       <c r="AT52">
-        <v>4.9</v>
+        <v>21</v>
       </c>
       <c r="AU52">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AV52">
-        <v>6.8</v>
+        <v>27</v>
       </c>
       <c r="AW52">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AX52">
-        <v>5.5</v>
+        <v>50</v>
       </c>
       <c r="AY52">
         <v>240</v>
       </c>
       <c r="AZ52">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="BA52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BB52">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="BC52">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BD52">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="BE52">
         <v>1000</v>
@@ -11367,10 +11352,10 @@
         <v>227</v>
       </c>
       <c r="F53">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G53">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H53">
         <v>2.08</v>
@@ -11382,49 +11367,49 @@
         <v>4.2</v>
       </c>
       <c r="K53">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="O53">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P53">
+        <v>1.41</v>
+      </c>
+      <c r="Q53">
         <v>1.43</v>
       </c>
-      <c r="Q53">
-        <v>1.44</v>
-      </c>
       <c r="R53">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="S53">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T53">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="U53">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="V53">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W53">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="X53">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z53">
         <v>27</v>
@@ -11433,40 +11418,40 @@
         <v>28</v>
       </c>
       <c r="AB53">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC53">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AD53">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF53">
         <v>11</v>
       </c>
       <c r="AG53">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH53">
+        <v>16.5</v>
+      </c>
+      <c r="AI53">
         <v>17</v>
       </c>
-      <c r="AI53">
-        <v>17.5</v>
-      </c>
       <c r="AJ53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK53">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL53">
         <v>15</v>
       </c>
       <c r="AM53">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN53">
         <v>13</v>
@@ -11475,52 +11460,52 @@
         <v>13.5</v>
       </c>
       <c r="AP53">
+        <v>20</v>
+      </c>
+      <c r="AQ53">
         <v>21</v>
-      </c>
-      <c r="AQ53">
-        <v>22</v>
       </c>
       <c r="AR53">
         <v>50</v>
       </c>
       <c r="AS53">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AT53">
         <v>27</v>
       </c>
       <c r="AU53">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV53">
         <v>27</v>
       </c>
       <c r="AW53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX53">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AY53">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AZ53">
+        <v>13.5</v>
+      </c>
+      <c r="BA53">
         <v>14.5</v>
       </c>
-      <c r="BA53">
-        <v>16</v>
-      </c>
       <c r="BB53">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC53">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="BD53">
+        <v>130</v>
+      </c>
+      <c r="BE53">
         <v>140</v>
-      </c>
-      <c r="BE53">
-        <v>200</v>
       </c>
       <c r="BF53">
         <v>33115442</v>
@@ -11564,37 +11549,37 @@
         <v>228</v>
       </c>
       <c r="F54">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G54">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H54">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I54">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="J54">
         <v>3.4</v>
       </c>
       <c r="K54">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L54">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="M54">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="N54">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="O54">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P54">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q54">
         <v>1.89</v>
@@ -11603,118 +11588,118 @@
         <v>2.12</v>
       </c>
       <c r="S54">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T54">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="U54">
         <v>13.5</v>
       </c>
       <c r="V54">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="W54">
         <v>11.5</v>
       </c>
       <c r="X54">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="Y54">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z54">
+        <v>30</v>
+      </c>
+      <c r="AA54">
+        <v>40</v>
+      </c>
+      <c r="AB54">
+        <v>10</v>
+      </c>
+      <c r="AC54">
+        <v>11.5</v>
+      </c>
+      <c r="AD54">
         <v>7</v>
-      </c>
-      <c r="AA54">
-        <v>48</v>
-      </c>
-      <c r="AB54">
-        <v>8.6</v>
-      </c>
-      <c r="AC54">
-        <v>12</v>
-      </c>
-      <c r="AD54">
-        <v>7.2</v>
       </c>
       <c r="AE54">
         <v>8</v>
       </c>
       <c r="AF54">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AG54">
         <v>12.5</v>
       </c>
       <c r="AH54">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI54">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AJ54">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK54">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL54">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AM54">
         <v>13</v>
       </c>
       <c r="AN54">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO54">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AP54">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="AQ54">
         <v>55</v>
       </c>
       <c r="AR54">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="AS54">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AT54">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="AU54">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AV54">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW54">
         <v>55</v>
       </c>
       <c r="AX54">
-        <v>7.2</v>
+        <v>12.5</v>
       </c>
       <c r="AY54">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AZ54">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BA54">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="BB54">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="BC54">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="BD54">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="BE54">
         <v>1000</v>
@@ -11761,58 +11746,58 @@
         <v>229</v>
       </c>
       <c r="F55">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H55">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I55">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J55">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K55">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L55">
         <v>1.73</v>
       </c>
       <c r="M55">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="N55">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="O55">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="P55">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q55">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R55">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="S55">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T55">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U55">
         <v>10.5</v>
       </c>
       <c r="V55">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="W55">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X55">
         <v>9.4</v>
@@ -11830,13 +11815,13 @@
         <v>13.5</v>
       </c>
       <c r="AC55">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD55">
         <v>7.4</v>
       </c>
       <c r="AE55">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF55">
         <v>9.800000000000001</v>
@@ -11851,7 +11836,7 @@
         <v>23</v>
       </c>
       <c r="AJ55">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK55">
         <v>36</v>
@@ -11863,37 +11848,37 @@
         <v>20</v>
       </c>
       <c r="AN55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO55">
         <v>23</v>
       </c>
       <c r="AP55">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AQ55">
         <v>48</v>
       </c>
       <c r="AR55">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AS55">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AT55">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="AU55">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AV55">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AW55">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AX55">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AY55">
         <v>160</v>
@@ -11902,16 +11887,16 @@
         <v>16.5</v>
       </c>
       <c r="BA55">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="BB55">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="BC55">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BD55">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE55">
         <v>1000</v>
@@ -11958,25 +11943,25 @@
         <v>230</v>
       </c>
       <c r="F56">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="G56">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H56">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="I56">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J56">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K56">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L56">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="M56">
         <v>1.77</v>
@@ -11985,130 +11970,130 @@
         <v>2.3</v>
       </c>
       <c r="O56">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="P56">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q56">
         <v>2.14</v>
       </c>
       <c r="R56">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S56">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T56">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U56">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="V56">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="W56">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="X56">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y56">
         <v>12.5</v>
       </c>
       <c r="Z56">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA56">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB56">
         <v>11</v>
       </c>
       <c r="AC56">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD56">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AE56">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF56">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG56">
         <v>12</v>
       </c>
       <c r="AH56">
+        <v>22</v>
+      </c>
+      <c r="AI56">
+        <v>26</v>
+      </c>
+      <c r="AJ56">
+        <v>24</v>
+      </c>
+      <c r="AK56">
+        <v>29</v>
+      </c>
+      <c r="AL56">
+        <v>15.5</v>
+      </c>
+      <c r="AM56">
+        <v>17.5</v>
+      </c>
+      <c r="AN56">
         <v>19.5</v>
       </c>
-      <c r="AI56">
-        <v>27</v>
-      </c>
-      <c r="AJ56">
-        <v>7.4</v>
-      </c>
-      <c r="AK56">
-        <v>32</v>
-      </c>
-      <c r="AL56">
-        <v>15</v>
-      </c>
-      <c r="AM56">
-        <v>19.5</v>
-      </c>
-      <c r="AN56">
-        <v>18</v>
-      </c>
       <c r="AO56">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP56">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AQ56">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AR56">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AS56">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AT56">
-        <v>7.6</v>
+        <v>44</v>
       </c>
       <c r="AU56">
         <v>65</v>
       </c>
       <c r="AV56">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AW56">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AX56">
-        <v>8.6</v>
+        <v>26</v>
       </c>
       <c r="AY56">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AZ56">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="BA56">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BB56">
-        <v>6.2</v>
+        <v>17</v>
       </c>
       <c r="BC56">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BD56">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BE56">
         <v>1000</v>
@@ -12161,7 +12146,7 @@
         <v>3.95</v>
       </c>
       <c r="H57">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I57">
         <v>2.36</v>
@@ -12170,10 +12155,10 @@
         <v>3.2</v>
       </c>
       <c r="K57">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L57">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="M57">
         <v>1.71</v>
@@ -12182,10 +12167,10 @@
         <v>2.4</v>
       </c>
       <c r="O57">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="P57">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q57">
         <v>2.14</v>
@@ -12194,10 +12179,10 @@
         <v>1.88</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T57">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U57">
         <v>10.5</v>
@@ -12209,103 +12194,103 @@
         <v>8.4</v>
       </c>
       <c r="X57">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y57">
         <v>14.5</v>
       </c>
       <c r="Z57">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AA57">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AB57">
         <v>9.6</v>
       </c>
       <c r="AC57">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD57">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AE57">
         <v>7.6</v>
       </c>
       <c r="AF57">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG57">
         <v>12</v>
       </c>
       <c r="AH57">
-        <v>22</v>
+        <v>7.8</v>
       </c>
       <c r="AI57">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ57">
         <v>20</v>
       </c>
       <c r="AK57">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL57">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM57">
+        <v>16.5</v>
+      </c>
+      <c r="AN57">
         <v>17.5</v>
-      </c>
-      <c r="AN57">
-        <v>17</v>
       </c>
       <c r="AO57">
         <v>24</v>
       </c>
       <c r="AP57">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ57">
         <v>980</v>
       </c>
       <c r="AR57">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AS57">
         <v>980</v>
       </c>
       <c r="AT57">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AU57">
         <v>980</v>
       </c>
       <c r="AV57">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AW57">
         <v>980</v>
       </c>
       <c r="AX57">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AY57">
         <v>980</v>
       </c>
       <c r="AZ57">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="BA57">
         <v>980</v>
       </c>
       <c r="BB57">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="BC57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD57">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="BE57">
         <v>1000</v>
@@ -12352,22 +12337,22 @@
         <v>232</v>
       </c>
       <c r="F58">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G58">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H58">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I58">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J58">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K58">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L58">
         <v>2.4</v>
@@ -12382,7 +12367,7 @@
         <v>1.72</v>
       </c>
       <c r="P58">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q58">
         <v>1.9</v>
@@ -12394,31 +12379,31 @@
         <v>2.24</v>
       </c>
       <c r="T58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U58">
         <v>22</v>
       </c>
       <c r="V58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X58">
-        <v>46</v>
+        <v>13.5</v>
       </c>
       <c r="Y58">
         <v>65</v>
       </c>
       <c r="Z58">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA58">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="AB58">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC58">
         <v>10.5</v>
@@ -12433,19 +12418,19 @@
         <v>24</v>
       </c>
       <c r="AG58">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH58">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI58">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AJ58">
         <v>9</v>
       </c>
       <c r="AK58">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AL58">
         <v>9.199999999999999</v>
@@ -12463,13 +12448,13 @@
         <v>14.5</v>
       </c>
       <c r="AQ58">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AR58">
         <v>12.5</v>
       </c>
       <c r="AS58">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AT58">
         <v>13</v>
@@ -12478,31 +12463,31 @@
         <v>14.5</v>
       </c>
       <c r="AV58">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW58">
         <v>30</v>
       </c>
       <c r="AX58">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY58">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AZ58">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="BA58">
         <v>6.4</v>
       </c>
       <c r="BB58">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BC58">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="BD58">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="BE58">
         <v>980</v>
@@ -12549,25 +12534,25 @@
         <v>233</v>
       </c>
       <c r="F59">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G59">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H59">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="I59">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="J59">
         <v>4.9</v>
       </c>
       <c r="K59">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L59">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M59">
         <v>2.28</v>
@@ -12576,31 +12561,31 @@
         <v>1.79</v>
       </c>
       <c r="O59">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="P59">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q59">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R59">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="S59">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="T59">
         <v>15.5</v>
       </c>
       <c r="U59">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V59">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="W59">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X59">
         <v>7.6</v>
@@ -12609,7 +12594,7 @@
         <v>8.4</v>
       </c>
       <c r="Z59">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA59">
         <v>12</v>
@@ -12618,7 +12603,7 @@
         <v>25</v>
       </c>
       <c r="AC59">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AD59">
         <v>10</v>
@@ -12630,76 +12615,76 @@
         <v>9.4</v>
       </c>
       <c r="AG59">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH59">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI59">
         <v>15.5</v>
       </c>
       <c r="AJ59">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK59">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AL59">
-        <v>10.5</v>
+        <v>27</v>
       </c>
       <c r="AM59">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AN59">
         <v>23</v>
       </c>
       <c r="AO59">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP59">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ59">
         <v>38</v>
       </c>
       <c r="AR59">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AS59">
         <v>980</v>
       </c>
       <c r="AT59">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AU59">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AV59">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AW59">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AX59">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AY59">
+        <v>980</v>
+      </c>
+      <c r="AZ59">
+        <v>15</v>
+      </c>
+      <c r="BA59">
         <v>170</v>
       </c>
-      <c r="AZ59">
-        <v>12.5</v>
-      </c>
-      <c r="BA59">
-        <v>200</v>
-      </c>
       <c r="BB59">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="BC59">
         <v>7.2</v>
       </c>
       <c r="BD59">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="BE59">
         <v>1000</v>
@@ -12746,25 +12731,25 @@
         <v>234</v>
       </c>
       <c r="F60">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G60">
         <v>5.9</v>
       </c>
       <c r="H60">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="I60">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="J60">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K60">
         <v>3.8</v>
       </c>
       <c r="L60">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="M60">
         <v>1.82</v>
@@ -12773,10 +12758,10 @@
         <v>2.22</v>
       </c>
       <c r="O60">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="P60">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q60">
         <v>2.22</v>
@@ -12785,7 +12770,7 @@
         <v>1.82</v>
       </c>
       <c r="S60">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="T60">
         <v>10</v>
@@ -12803,19 +12788,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Y60">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA60">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB60">
         <v>14.5</v>
       </c>
       <c r="AC60">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD60">
         <v>7.6</v>
@@ -12830,7 +12815,7 @@
         <v>10.5</v>
       </c>
       <c r="AH60">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI60">
         <v>22</v>
@@ -12842,10 +12827,10 @@
         <v>42</v>
       </c>
       <c r="AL60">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM60">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AN60">
         <v>21</v>
@@ -12857,46 +12842,46 @@
         <v>40</v>
       </c>
       <c r="AQ60">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AR60">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AS60">
-        <v>190</v>
+        <v>980</v>
       </c>
       <c r="AT60">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AU60">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="AV60">
         <v>15</v>
       </c>
       <c r="AW60">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AX60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY60">
         <v>980</v>
       </c>
       <c r="AZ60">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="BA60">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="BB60">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC60">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="BD60">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="BE60">
         <v>1000</v>
@@ -12949,7 +12934,7 @@
         <v>5.2</v>
       </c>
       <c r="H61">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I61">
         <v>1.96</v>
@@ -12973,7 +12958,7 @@
         <v>2.38</v>
       </c>
       <c r="P61">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q61">
         <v>2.18</v>
@@ -12982,46 +12967,46 @@
         <v>1.85</v>
       </c>
       <c r="S61">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="T61">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="U61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V61">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="W61">
         <v>7.8</v>
       </c>
       <c r="X61">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y61">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z61">
         <v>18</v>
       </c>
       <c r="AA61">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB61">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD61">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE61">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AF61">
         <v>8.800000000000001</v>
-      </c>
-      <c r="AF61">
-        <v>9.6</v>
       </c>
       <c r="AG61">
         <v>11</v>
@@ -13033,7 +13018,7 @@
         <v>25</v>
       </c>
       <c r="AJ61">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AK61">
         <v>40</v>
@@ -13051,49 +13036,49 @@
         <v>25</v>
       </c>
       <c r="AP61">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ61">
         <v>55</v>
       </c>
       <c r="AR61">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AS61">
         <v>980</v>
       </c>
       <c r="AT61">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AU61">
         <v>980</v>
       </c>
       <c r="AV61">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AW61">
         <v>980</v>
       </c>
       <c r="AX61">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AY61">
         <v>980</v>
       </c>
       <c r="AZ61">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BA61">
         <v>980</v>
       </c>
       <c r="BB61">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BC61">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BD61">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="BE61">
         <v>1000</v>
@@ -13146,151 +13131,151 @@
         <v>2.62</v>
       </c>
       <c r="H62">
+        <v>3.2</v>
+      </c>
+      <c r="I62">
+        <v>3.5</v>
+      </c>
+      <c r="J62">
         <v>3.15</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>3.4</v>
       </c>
-      <c r="J62">
-        <v>3.2</v>
-      </c>
-      <c r="K62">
-        <v>3.45</v>
-      </c>
       <c r="L62">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="M62">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="N62">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="O62">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="P62">
+        <v>2</v>
+      </c>
+      <c r="Q62">
+        <v>2.16</v>
+      </c>
+      <c r="R62">
+        <v>1.87</v>
+      </c>
+      <c r="S62">
         <v>1.99</v>
       </c>
-      <c r="Q62">
-        <v>2.12</v>
-      </c>
-      <c r="R62">
-        <v>1.89</v>
-      </c>
-      <c r="S62">
-        <v>2.02</v>
-      </c>
       <c r="T62">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="U62">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="V62">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W62">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X62">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="Y62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z62">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AA62">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB62">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC62">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD62">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AE62">
         <v>7.6</v>
       </c>
       <c r="AF62">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG62">
         <v>16</v>
       </c>
       <c r="AH62">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AI62">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK62">
         <v>16.5</v>
       </c>
       <c r="AL62">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM62">
         <v>13.5</v>
       </c>
       <c r="AN62">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO62">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP62">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AQ62">
         <v>980</v>
       </c>
       <c r="AR62">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AS62">
         <v>40</v>
       </c>
       <c r="AT62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AU62">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AV62">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AW62">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AX62">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AY62">
         <v>980</v>
       </c>
       <c r="AZ62">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="BA62">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BB62">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BC62">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="BD62">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="BE62">
         <v>1000</v>
@@ -13337,16 +13322,16 @@
         <v>237</v>
       </c>
       <c r="F63">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G63">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H63">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I63">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="J63">
         <v>3.35</v>
@@ -13367,55 +13352,55 @@
         <v>2.3</v>
       </c>
       <c r="P63">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q63">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S63">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T63">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="U63">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="V63">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="W63">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X63">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z63">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AA63">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB63">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AD63">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE63">
         <v>8</v>
       </c>
       <c r="AF63">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG63">
         <v>11.5</v>
@@ -13424,70 +13409,70 @@
         <v>20</v>
       </c>
       <c r="AI63">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ63">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="AK63">
         <v>34</v>
       </c>
       <c r="AL63">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AM63">
+        <v>16.5</v>
+      </c>
+      <c r="AN63">
         <v>17.5</v>
       </c>
-      <c r="AN63">
-        <v>16</v>
-      </c>
       <c r="AO63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP63">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AQ63">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AR63">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AS63">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AT63">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AU63">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AV63">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AW63">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AX63">
+        <v>7.8</v>
+      </c>
+      <c r="AY63">
+        <v>160</v>
+      </c>
+      <c r="AZ63">
         <v>7</v>
       </c>
-      <c r="AY63">
-        <v>980</v>
-      </c>
-      <c r="AZ63">
-        <v>6.6</v>
-      </c>
       <c r="BA63">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB63">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="BC63">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BD63">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="BE63">
         <v>1000</v>
